--- a/Tos.FoodProcs.Web/templates/nonyuYoteiListSakusei_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/nonyuYoteiListSakusei_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9264E552-80EE-43D5-9638-9685DFAF76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1596" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,45 +25,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Vendor1(Logistics) 　　　　　  ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vendor2(Commercial distribution)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Partial plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Danh sách dự định nhập</t>
   </si>
   <si>
-    <t>Ngày giờ xuất　　      　　　　　　：</t>
-  </si>
-  <si>
-    <t>Người xuất　       　       　　　　　：</t>
-  </si>
-  <si>
-    <t>Tên khách hàng　　  　　 　          ：</t>
-  </si>
-  <si>
-    <t>Mã khách hàng 　    　　           　  ：</t>
-  </si>
-  <si>
-    <t>Điều kiện bảo quản    　　　　    　：</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm         　　    　　　：</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm     　　　   　　    　：</t>
-  </si>
-  <si>
-    <t>Ngày nhập       　　　    　　　　　：</t>
-  </si>
-  <si>
     <t>Duyệt</t>
   </si>
   <si>
@@ -88,15 +53,6 @@
   </si>
   <si>
     <t>Đơn vị nhập (lẻ)</t>
-  </si>
-  <si>
-    <t>Ngày dự định nhập</t>
-  </si>
-  <si>
-    <t>Ngày thực tế nhập</t>
-  </si>
-  <si>
-    <t>Delivery plan</t>
   </si>
   <si>
     <t>Số lượng nhập
@@ -116,14 +72,139 @@
     <t>Loại thuế</t>
   </si>
   <si>
-    <t>Vendor1(Logistics)</t>
+    <t>Số lượng nhập
+dự định</t>
+  </si>
+  <si>
+    <t>Số lượng nhập
+dự định (lẻ)</t>
+  </si>
+  <si>
+    <t>Ngày nhập thực tế</t>
+  </si>
+  <si>
+    <t>Ngày nhập dự định</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp 1 (Logistics)</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp 2 (Giao dịch)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày nhập       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loại nguyên vật liệu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phân loại nhóm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Điều kiện bảo quản</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nhà cung cấp 1(Logistics)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tên nhà cung cấp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ngày giờ xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Người xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="@* \:"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -154,6 +235,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,6 +351,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="9"/>
       </left>
@@ -273,113 +375,96 @@
       <top style="thin">
         <color indexed="9"/>
       </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="medium">
+        <color indexed="18"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="medium">
+        <color indexed="18"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="medium">
+        <color indexed="18"/>
+      </right>
+      <top style="medium">
+        <color indexed="18"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="medium">
-        <color indexed="18"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="medium">
-        <color indexed="18"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="medium">
-        <color indexed="18"/>
-      </right>
-      <top style="medium">
-        <color indexed="18"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,14 +491,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,8 +508,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,17 +520,17 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,9 +550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -502,9 +590,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -755,31 +843,31 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" style="17" customWidth="1"/>
-    <col min="2" max="3" width="21.21875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="17" customWidth="1"/>
-    <col min="8" max="9" width="23.88671875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="17" customWidth="1"/>
-    <col min="11" max="12" width="21" style="17" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="17" customWidth="1"/>
-    <col min="14" max="15" width="21" style="17" customWidth="1"/>
-    <col min="16" max="17" width="20" style="17" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" style="17" customWidth="1"/>
-    <col min="19" max="20" width="40" style="17" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="12" style="16" customWidth="1"/>
+    <col min="2" max="3" width="21.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="42.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="16" customWidth="1"/>
+    <col min="8" max="9" width="23.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="16" customWidth="1"/>
+    <col min="11" max="12" width="21" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="16" customWidth="1"/>
+    <col min="14" max="15" width="21" style="16" customWidth="1"/>
+    <col min="16" max="17" width="20" style="16" customWidth="1"/>
+    <col min="18" max="18" width="15.125" style="16" customWidth="1"/>
+    <col min="19" max="20" width="40" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -802,179 +890,201 @@
       <c r="T1" s="2"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="D2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="D3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="D4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="D5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="D6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="D7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="J9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="D10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="D11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" s="15" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="J9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" s="16" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="R13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="S13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="T13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
